--- a/biology/Histoire de la zoologie et de la botanique/Pavel_Gorianinov/Pavel_Gorianinov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pavel_Gorianinov/Pavel_Gorianinov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavel Fiodorovitch Gorianinov (en russe : Павел Фёдорович Горянинов), dont la transcription allemande est Paul (ou Paulus) Fedorowitsch Horaninow, est un botaniste russe, né en 1796 à Moguilev et mort en 1865 à Saint-Pétersbourg.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le botaniste russe Horaninow développa un système universel de la Nature[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le botaniste russe Horaninow développa un système universel de la Nature.
 En 1834, il proposait deux règnes de la Nature, chacun contenant 4 divisions sans rang :
 A. le règne inorganique Regnum amorpho-anorganicum
 1. le feu Aether-(Ignis),
@@ -525,7 +539,7 @@
 2. Phytozoa (en 4 classes : Algae, Fungi, Polyparii, Acalephae),
 3. Animalia (en 12 classes : Infusoria, Entozoa, Radiata, Mollusca, Annulata, Arachnida, Insecta, Crustacea, Pisces, Amphibia, Aves, Mammalia),
 4. Homo sapiens.
-Les différentes classes étaient disposées en anneaux concentriques[2],[3].
+Les différentes classes étaient disposées en anneaux concentriques,.
 En 1843, il élevait ses règnes en mondes ou Orbis, les 8 groupes sans rang devenant des règnes :
 A. Orbis Anorganicus (I. Regnum Aethereum, II. Regnum Aqueum, III. Regnum Aereum et IV. Regnum Minerale) ;
 B. Orbis Organicus (V. Regnum Vegetabile, VI. Regnum Amphorganicum, VII. Regnum Animale et VIII. Regnum Hominis).
@@ -558,7 +572,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Primae Lineae Systematis Naturae, nexui naturali omnium evolutionique progressivae per nixus reascendentes superstructui (1834) [lire en ligne]
 (la) Tetractys naturae seu systema quadrimembre omnium naturalium (1843) [lire en ligne]
@@ -590,7 +606,9 @@
           <t>Autres translittérations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paul (Paulus) Fedorowitsch Ghoryaninov: mélange de transcription allemande et anglaise
 Pavel Fedorovich Gorianinov, transcription anglaise
